--- a/inputs/user/model_matching.xlsx
+++ b/inputs/user/model_matching.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB7DEB9-1812-4D9C-8085-5AA4DBD0AD2E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F46587-682E-4972-980F-2E7B3C2B0B99}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="255" windowWidth="19440" windowHeight="15000" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-1640" windowWidth="25820" windowHeight="14160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="material" sheetId="1" r:id="rId1"/>
@@ -1708,8 +1708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2326,7 +2326,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
